--- a/medicine/Mort/Cimetière_national_d'Arlington/Cimetière_national_d'Arlington.xlsx
+++ b/medicine/Mort/Cimetière_national_d'Arlington/Cimetière_national_d'Arlington.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_d%27Arlington</t>
+          <t>Cimetière_national_d'Arlington</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national d'Arlington (en anglais : Arlington National Cemetery) est un cimetière militaire américain situé dans le comté d'Arlington, en Virginie. Il est créé durant la guerre de Sécession sur les terrains d'Arlington House, une ancienne propriété de l'épouse du général Robert Lee, chef des armées confédérées.
 Se trouvant face à Washington, D.C., de l'autre côté du fleuve Potomac, à côté des bâtiments du Pentagone, le cimetière d'Arlington est inscrit au Registre national des lieux historiques en 2014. Plus de 290 000 personnes sont enterrées sur ce terrain de 2,53 km2, des anciens combattants de toutes les guerres américaines, de la guerre d'indépendance aux derniers conflits du XXIe siècle, guerre d'Irak ou d'Afghanistan, avec notamment les deux guerres mondiales, la guerre de Corée et la guerre du Viêt Nam. Deux présidents américains sont enterrés à Arlington : William Taft et John Fitzgerald Kennedy.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_d%27Arlington</t>
+          <t>Cimetière_national_d'Arlington</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière national d'Arlington est situé sur la rivière Potomac, juste en face de la ville de Washington (district de Columbia) sur la plantation de George Washington Parke Custis (en), le fils adoptif de George Washington, à sa mort en 1857, sa fille unique Mary Ann Randolph en hérite. Mary Ann avait épousé en 1831 le lieutenant Robert E. Lee qui deviendra le général en chef des armées des États confédérés. En 1802, il est construit un manoir de style néoclassique inspiré du temple d'Hephaïstos  d'Athènes, l'Arlington House[1] qui depuis, sert de mémorial de Robert E. Lee.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière national d'Arlington est situé sur la rivière Potomac, juste en face de la ville de Washington (district de Columbia) sur la plantation de George Washington Parke Custis (en), le fils adoptif de George Washington, à sa mort en 1857, sa fille unique Mary Ann Randolph en hérite. Mary Ann avait épousé en 1831 le lieutenant Robert E. Lee qui deviendra le général en chef des armées des États confédérés. En 1802, il est construit un manoir de style néoclassique inspiré du temple d'Hephaïstos  d'Athènes, l'Arlington House qui depuis, sert de mémorial de Robert E. Lee.
 Lorsqu'éclate en 1861 la Guerre de Sécession, les Lee abandonnent Arlington, le terrain est occupé par les troupes de l'Union, le manoir est converti en quartier général. Trois forts y sont construits les Fort Cass/Rosslyn, Fort Whipple/Fort Myer et le Fort McPherson, ainsi qu'un hôpital de campagne. Une partie du terrain sert de refuge pour des esclaves afro-américains affranchis qui fermera en 1890.
-Le 13 mai 1864, le quartier-maître général Montgomery Meigs[2],[3] y autorise la création d'un cimetière militaire de 81 hectares autour  de l'Arlington House. Le 15 juin 1864, Edwin M. Stanton, secrétaire d’État à la guerre, le déclare officiellement cimetière militaire. En août 1864, commencent les premières inhumations militaires, avec l'enterrement de 26 soldats[4]. À la fin de l'année 1864, plus de 7 000 soldats y sont enterrés.
-En 1873, pour accueillir les cérémonies officielles est érigé un amphithéâtre, connu maintenant sous le nom de Tanner Amphitheater (en)[5],[6].
-En 1882, la Cour suprême des États-Unis déclare que le cimetière d'Arlington doit être restitué à ses propriétaires. Plutôt que de transférer les plus de 16 000 soldats enterrés vers un autre cimetière, le Congrès des États-Unis décide de le racheter pour la somme de 150 000 $. À la suite du rachat, le cimetière devient le lieu de sépulture des victimes de toutes les guerres américaines depuis la Révolution américaine, et devient peu à peu le plus important des cimetières militaires[7],[8],[9],[10],[11],[12],[13],[14].
+Le 13 mai 1864, le quartier-maître général Montgomery Meigs, y autorise la création d'un cimetière militaire de 81 hectares autour  de l'Arlington House. Le 15 juin 1864, Edwin M. Stanton, secrétaire d’État à la guerre, le déclare officiellement cimetière militaire. En août 1864, commencent les premières inhumations militaires, avec l'enterrement de 26 soldats. À la fin de l'année 1864, plus de 7 000 soldats y sont enterrés.
+En 1873, pour accueillir les cérémonies officielles est érigé un amphithéâtre, connu maintenant sous le nom de Tanner Amphitheater (en),.
+En 1882, la Cour suprême des États-Unis déclare que le cimetière d'Arlington doit être restitué à ses propriétaires. Plutôt que de transférer les plus de 16 000 soldats enterrés vers un autre cimetière, le Congrès des États-Unis décide de le racheter pour la somme de 150 000 $. À la suite du rachat, le cimetière devient le lieu de sépulture des victimes de toutes les guerres américaines depuis la Révolution américaine, et devient peu à peu le plus important des cimetières militaires.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_d%27Arlington</t>
+          <t>Cimetière_national_d'Arlington</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>La tombe des Inconnus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe des Inconnus, également nommée tombe des Soldats inconnus est l'un des sites les plus populaires du cimetière. Elle abrite les soldats inconnus américains de la Première et de la Seconde Guerres mondiales, ainsi que de la guerre de Corée et de la guerre du Viêt Nam. Grand tombeau de marbre provenant du Colorado, elle est située sur une colline surplombant directement la ville de Washington.
 Elle était initialement nommée Tombe du Soldat inconnu (Tomb of the Unknown Soldier). D'autres soldats inconnus tués lors d'autres guerres y furent plus tard enterrés et le lieu est devenu connu sous le nom de Tombe des Inconnus même si ce titre n'est pas officiel.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_d%27Arlington</t>
+          <t>Cimetière_national_d'Arlington</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Amphithéâtre du mémorial d'Arlington</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe des Inconnus fait partie de l'amphithéâtre du mémorial d'Arlington. Cet amphithéâtre accueille les obsèques nationales et les cérémonies du Memorial Day et du Veterans Day. Des cérémonies se tiennent également à Pâques. Environ 5 000 personnes assistent à ces cérémonies chaque année. L'amphithéâtre est principalement construit en marbre Imperial Danby venant du Vermont. La salle d'exposition entre l'amphithéâtre et la tombe des Inconnus utilise du marbre Botticino, importé d'Italie. La construction de cet amphithéâtre est le résultat d'une campagne d'Ivory Kimball pour bâtir un lieu pour honorer les soldats américains. Le Congrès autorisa la construction le 4 mars 1913 et le président Woodrow Wilson posa la première pierre le 15 octobre 1915. Celle-ci contient 15 objets dont une bible et une copie de la Constitution américaine.
 Avant que la construction de l'amphithéâtre du mémorial ne soit achevée en 1921, les cérémonies importantes se tenaient dans ce qui est connu maintenant sous le nom du « Vieil amphithéâtre » (« Old Amphitheater »). Il se trouve sur l'emplacement des anciens jardins du général Robert Lee. Il fut construit en 1868 sous la direction du général John A. Logan. James Garfield fut le principal orateur le jour de l'inauguration le 30 mai 1868. L'amphithéâtre est entouré d'une colonnade couverte d'un treillis qui supporte une vigne. L'amphithéâtre possède une estrade de marbre, connue sous le nom de « la Tribune », sur laquelle est inscrite la devise que l'on trouve sur le Grand sceau des États-Unis d'Amérique, E pluribus unum (« de plusieurs, un seul »). L'amphithéâtre peut accueillir 1 500 personnes assises et a vu passer des orateurs tels William Jennings Bryan.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_d%27Arlington</t>
+          <t>Cimetière_national_d'Arlington</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Autres emplacements célèbres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parmi les nombreux emplacements célèbres du cimetière, les plus connus sont : 
 le mémorial du corps des Marines des États-Unis avec une statue reproduisant la célèbre photo Raising the Flag on Iwo Jima (« Levée du Drapeau sur Iwo Jima ») durant la bataille d'Iwo Jima. Le monument est situé à l'extérieur du cimetière ;
@@ -629,7 +649,7 @@
 le mémorial dédié aux astronautes disparus dans la catastrophe de la navette spatiale Columbia ;
 le mémorial du Pentagone, en honneur aux 184 victimes de l’attentat terroriste contre le Pentagone le 11 septembre 2001 ;
 le mémorial de Lockerbie dédié aux 270 tués lors de l’explosion du vol Pan Am 103 au-dessus de Lockerbie en Écosse.
-mémorial des correspondants de guerre, placé en 1985 à la demande de Society of Professional Journalists, National Press Club, No Greater Love et OPC pour commémorer les journalistes morts au champ d’honneur[15].</t>
+mémorial des correspondants de guerre, placé en 1985 à la demande de Society of Professional Journalists, National Press Club, No Greater Love et OPC pour commémorer les journalistes morts au champ d’honneur.</t>
         </is>
       </c>
     </row>
@@ -639,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_d%27Arlington</t>
+          <t>Cimetière_national_d'Arlington</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,7 +677,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre la famille Kennedy sont enterrés dans ce cimetière :
 par ordre alphabétique
@@ -684,7 +706,7 @@
 René Gagnon (1925-1979), Ira Hayes (1923-1955) et Michael Strank (1919-1945), trois des six Marines américains immortalisés par Joe Rosenthal sur la photographie Raising the Flag on Iwo Jima, lors de la bataille d'Iwo Jima durant la Seconde Guerre mondiale.
 Helen H. Gardener (1853-1925), militante pour le droit de vote des femmes.
 Dashiell Hammett (1894-1961), écrivain considéré comme le fondateur du roman noir.
-John Porter Hatch (1822-1901), brigadier général de l'Union et récipiendaire de la médaille d'honneur pour son action lors de la bataille de South Mountain[16](p159).
+John Porter Hatch (1822-1901), brigadier général de l'Union et récipiendaire de la médaille d'honneur pour son action lors de la bataille de South Mountain(p159).
 Grace Hopper (1906-1992), contre-amiral et pionnière dans l'informatique.
 James Irwin (1930-1991), astronaute, 8e marcheur lunaire avec Apollo 15.
 Henry Kissinger (1923-2023), conseiller à la sécurité nationale américaine et secrétaire d'État de Richard Nixon puis de Gerald Ford.
@@ -719,7 +741,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_d%27Arlington</t>
+          <t>Cimetière_national_d'Arlington</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -737,7 +759,9 @@
           <t>Critères pour y être inhumé</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les critères pour pouvoir être inhumé à Arlington sont régis par le Code of Federal Regulation. Peuvent s'y faire enterrer : 
 tout ancien combattant ;
